--- a/PayrollProject/templates/StudentloanAnd1Priority1OtherInputSheet.xlsx
+++ b/PayrollProject/templates/StudentloanAnd1Priority1OtherInputSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\ProvarFeb202019\PayrollProject\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18346E2-FBF0-4C04-AE9B-4FD66F813249}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D745C5-B566-4356-AEB0-11C1FCAB653F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
+    <workbookView xWindow="0" yWindow="1890" windowWidth="20490" windowHeight="7485" activeTab="1" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
   </bookViews>
   <sheets>
     <sheet name="October2018PayPeriod" sheetId="1" r:id="rId1"/>
@@ -57,15 +57,9 @@
     <t>Monthly</t>
   </si>
   <si>
-    <t>October-2018</t>
-  </si>
-  <si>
     <t>C Employees over State pension age (attach passport/birth certificate)</t>
   </si>
   <si>
-    <t>November-2018</t>
-  </si>
-  <si>
     <t>DO NOT TOUCH AUTOMATION EMP 142</t>
   </si>
   <si>
@@ -79,13 +73,19 @@
   </si>
   <si>
     <t>StdntLoanPriorty1Other1_Payroll</t>
+  </si>
+  <si>
+    <t>October-2019</t>
+  </si>
+  <si>
+    <t>November-2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +106,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,7 +135,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -152,6 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -469,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656F5891-C399-4E72-BDAD-0F4BF0D31C04}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,25 +516,25 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -541,10 +548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C9D326-24C3-49F9-A6BB-B9862FE77EE5}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,26 +590,29 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
